--- a/biology/Histoire de la zoologie et de la botanique/René_Zayan/René_Zayan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Zayan/René_Zayan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Zayan</t>
+          <t>René_Zayan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Zayan, né le 25 février 1947 au Caire (Égypte), mort à Etterbeek  (Belgique) le 21 avril 2014 (à 67 ans)[1], et inhumé le 3 mai au cimetière d'Ixelles, à Bruxelles, est un professeur français de psychologie. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Zayan, né le 25 février 1947 au Caire (Égypte), mort à Etterbeek  (Belgique) le 21 avril 2014 (à 67 ans), et inhumé le 3 mai au cimetière d'Ixelles, à Bruxelles, est un professeur français de psychologie. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Zayan</t>
+          <t>René_Zayan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été assistant dans le laboratoire d'éthologie de Georges Thinès[Notes 1], il devient professeur en éthologie et psychologie comparée puis en psychologie politique et en neurosciences cognitives à la Faculté de psychologie et des sciences de l'éducation à l'Université catholique de Louvain, en Belgique. Outre ses nombreuses publications dans le domaine de la psychologie comparée et de l'éthologie fondamentale ou appliquée, il assurera la vulgarisation de sa discipline par le biais de documentaires télévisés.
 Après des études de psychologie à l'université d'Aix-Marseille en France, il viendra entreprendre une thèse de doctorat à Louvain sous la supervision de Georges Thinès. Peu après cette thèse qui portait sur le rôle de la reconnaissance individuelle dans la défense du territoire et la stabilité hiérarchique chez Xiphophorus, un poisson d'eau douce, il se tournera vers l'éthologie appliquée en travaillant sur des problématiques liées au bien être chez plusieurs espèces d'animaux domestiques utilisées en élevage intensif. Notamment, il étudiera par une approche étho-expérimentale systématique l'utilisation de l'espace (espace social) ou le stress social chez la poule et le porc. L'étude des mécanismes de la reconnaissance sociale et individuelle dans les groupes d'animaux a été pour lui un thème  privilégié tout au long de sa carrière. 
